--- a/biology/Zoologie/Hippopotamus_creutzburgi/Hippopotamus_creutzburgi.xlsx
+++ b/biology/Zoologie/Hippopotamus_creutzburgi/Hippopotamus_creutzburgi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippopotame nain de Crète
 Hippopotamus creutzburgi, communément appelé Hippopotame nain de Crète, est une espèce éteinte d'hippopotames européens qui a vécu jusqu'au Pléistocène supérieur. Il est connu par des fossiles trouvés en Crète, où il a disparu quand l'Homme a commencé à coloniser l'ile.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hippopotamus creutzburgi a été décrite en 1966 par les paléontologues néerlandais Gijsbert Jan Boekschoten (d) (1933-) et Paul Yves Sondaar (d) (1934-2003)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hippopotamus creutzburgi a été décrite en 1966 par les paléontologues néerlandais Gijsbert Jan Boekschoten (d) (1933-) et Paul Yves Sondaar (d) (1934-2003).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers restes fossiles d'hippopotames nains de Crète ont été trouvés par Dorothea Bate sur le plateau de Katharo, dans l'Est de la Crète, dans les années 1920[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers restes fossiles d'hippopotames nains de Crète ont été trouvés par Dorothea Bate sur le plateau de Katharo, dans l'Est de la Crète, dans les années 1920.
 Il en va de même d'une autre espèce, l'Hippopotame nain de Chypre (Hippopotamus minor) qui a vécu sur l'ile de Chypre jusqu'au début de l'Holocène.
 </t>
         </is>
@@ -575,13 +591,15 @@
           <t>Origine évolutive et classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[4],[5],[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
 L'Hippopotame nain de Crète est considéré comme le descendant de l'Hippopotame européen par un processus de nanisme insulaire sur l'ile de Crète.
 On en distingue deux sous-espèces :
 Hippopotamus creutzburgi creutzburgi  et
-Hippopotamus creutzburgi parvus[7]. Ce dernier était le plus petit des deux, mais néanmoins plus grand que l'Hippopotame nain de Chypre.</t>
+Hippopotamus creutzburgi parvus. Ce dernier était le plus petit des deux, mais néanmoins plus grand que l'Hippopotame nain de Chypre.</t>
         </is>
       </c>
     </row>
@@ -609,9 +627,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, creutzburgi, lui a été donnée en l'honneur du géographe et professeur d'université Nikolaus Creutzburg (d) (1893-1978) en remerciement de ses travaux concernant la cartographie et l'exploration géomorphologique de la Crète[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, creutzburgi, lui a été donnée en l'honneur du géographe et professeur d'université Nikolaus Creutzburg (d) (1893-1978) en remerciement de ses travaux concernant la cartographie et l'exploration géomorphologique de la Crète.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) G. J. Boekschoten et P. Y. Sondaar, « The Pleistocene of the Katharo basin (Crete) and its Hippopotamus », Bijdragen tot de dierkunde, vol. 36, no 1,‎ 1966, p. 17-42 (ISSN 0067-8546 et 2666-0644, OCLC 1532934, DOI 10.1163/26660644-03601002, lire en ligne)</t>
         </is>
